--- a/temp_Matriz2.xlsx
+++ b/temp_Matriz2.xlsx
@@ -8,7 +8,7 @@
     <sheet state="visible" name="Formato-IpressTest2" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Formato_IpressTest!$A$1:$G$96</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Formato_IpressTest!$A$1:$G$97</definedName>
     <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">'Formato-IpressTest2'!$A$1:$G$101</definedName>
   </definedNames>
   <calcPr/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="205">
   <si>
     <t>Propuesta 2023
 Indicador</t>
@@ -950,6 +950,12 @@
     <t>Seccion 16</t>
   </si>
   <si>
+    <t>Seccion 17</t>
+  </si>
+  <si>
+    <t>pregunta 96</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Arial Narrow"/>
@@ -30363,7 +30369,7 @@
       <c r="H2" s="26"/>
       <c r="I2" s="26"/>
       <c r="J2" s="26" t="str">
-        <f t="shared" ref="J2:J96" si="1">CONCAT("var",C2)</f>
+        <f t="shared" ref="J2:J97" si="1">CONCAT("var",C2)</f>
         <v>var0</v>
       </c>
     </row>
@@ -32927,8 +32933,31 @@
         <v>var93</v>
       </c>
     </row>
+    <row r="97" ht="22.5" customHeight="1">
+      <c r="A97" s="26"/>
+      <c r="B97" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="C97" s="33">
+        <v>96.0</v>
+      </c>
+      <c r="D97" s="26"/>
+      <c r="E97" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="F97" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="G97" s="26"/>
+      <c r="H97" s="26"/>
+      <c r="I97" s="26"/>
+      <c r="J97" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>var96</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="$A$1:$G$96"/>
+  <autoFilter ref="$A$1:$G$97"/>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
@@ -34719,7 +34748,7 @@
         <v>176</v>
       </c>
       <c r="G70" s="22" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H70" s="26" t="str">
         <f t="shared" si="1"/>
@@ -34744,7 +34773,7 @@
         <v>176</v>
       </c>
       <c r="G71" s="22" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H71" s="26" t="str">
         <f t="shared" si="1"/>
@@ -34769,7 +34798,7 @@
         <v>176</v>
       </c>
       <c r="G72" s="22" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H72" s="26" t="str">
         <f t="shared" si="1"/>
@@ -34819,7 +34848,7 @@
         <v>176</v>
       </c>
       <c r="G74" s="22" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H74" s="26" t="str">
         <f t="shared" si="1"/>
@@ -34844,7 +34873,7 @@
         <v>176</v>
       </c>
       <c r="G75" s="22" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H75" s="26" t="str">
         <f t="shared" si="1"/>
@@ -34869,7 +34898,7 @@
         <v>176</v>
       </c>
       <c r="G76" s="22" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H76" s="26" t="str">
         <f t="shared" si="1"/>
@@ -35169,7 +35198,7 @@
         <v>176</v>
       </c>
       <c r="G88" s="22" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H88" s="26" t="str">
         <f t="shared" si="1"/>

--- a/temp_Matriz2.xlsx
+++ b/temp_Matriz2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="204">
   <si>
     <t>Propuesta 2023
 Indicador</t>
@@ -953,9 +953,6 @@
     <t>Seccion 17</t>
   </si>
   <si>
-    <t>pregunta 96</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <rFont val="Arial Narrow"/>
@@ -32934,26 +32931,30 @@
       </c>
     </row>
     <row r="97" ht="22.5" customHeight="1">
-      <c r="A97" s="26"/>
+      <c r="A97" s="23" t="s">
+        <v>109</v>
+      </c>
       <c r="B97" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="C97" s="33">
-        <v>96.0</v>
-      </c>
-      <c r="D97" s="26"/>
-      <c r="E97" s="33" t="s">
-        <v>197</v>
+      <c r="C97" s="30">
+        <v>93.0</v>
+      </c>
+      <c r="D97" s="31"/>
+      <c r="E97" s="20" t="s">
+        <v>134</v>
       </c>
       <c r="F97" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="G97" s="26"/>
+        <v>171</v>
+      </c>
+      <c r="G97" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="H97" s="26"/>
       <c r="I97" s="26"/>
       <c r="J97" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>var96</v>
+        <v>var93</v>
       </c>
     </row>
   </sheetData>
@@ -34748,7 +34749,7 @@
         <v>176</v>
       </c>
       <c r="G70" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H70" s="26" t="str">
         <f t="shared" si="1"/>
@@ -34773,7 +34774,7 @@
         <v>176</v>
       </c>
       <c r="G71" s="22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H71" s="26" t="str">
         <f t="shared" si="1"/>
@@ -34798,7 +34799,7 @@
         <v>176</v>
       </c>
       <c r="G72" s="22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H72" s="26" t="str">
         <f t="shared" si="1"/>
@@ -34848,7 +34849,7 @@
         <v>176</v>
       </c>
       <c r="G74" s="22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H74" s="26" t="str">
         <f t="shared" si="1"/>
@@ -34873,7 +34874,7 @@
         <v>176</v>
       </c>
       <c r="G75" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H75" s="26" t="str">
         <f t="shared" si="1"/>
@@ -34898,7 +34899,7 @@
         <v>176</v>
       </c>
       <c r="G76" s="22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H76" s="26" t="str">
         <f t="shared" si="1"/>
@@ -35198,7 +35199,7 @@
         <v>176</v>
       </c>
       <c r="G88" s="22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H88" s="26" t="str">
         <f t="shared" si="1"/>

--- a/temp_Matriz2.xlsx
+++ b/temp_Matriz2.xlsx
@@ -6,16 +6,18 @@
     <sheet state="visible" name="Hoja1" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Cuestionario 21012022" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="Formato_IpressTest" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Formato_test 2" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">Formato_IpressTest!$A$1:$G$100</definedName>
+    <definedName hidden="1" localSheetId="3" name="_xlnm._FilterDatabase">'Formato_test 2'!$A$1:$G$7</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="294">
   <si>
     <t>Propuesta 2023
 Indicador</t>
@@ -1431,6 +1433,9 @@
   <si>
     <t>Ambulancia|Transporte público|Transporte de autoridad local|Transporte comunitario automotor|Transporte comunitario rústico|Embarcaciones o canoas</t>
   </si>
+  <si>
+    <t>Pregunta 5</t>
+  </si>
 </sst>
 </file>
 
@@ -1996,6 +2001,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
@@ -60804,4 +60813,231 @@
   <pageSetup orientation="landscape"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="38.75"/>
+    <col customWidth="1" min="2" max="2" width="9.38"/>
+    <col customWidth="1" min="3" max="3" width="7.63"/>
+    <col customWidth="1" min="4" max="4" width="8.88"/>
+    <col customWidth="1" min="5" max="5" width="26.75"/>
+    <col customWidth="1" min="6" max="6" width="14.75"/>
+    <col customWidth="1" min="7" max="7" width="25.88"/>
+    <col customWidth="1" min="8" max="9" width="9.38"/>
+    <col customWidth="1" min="10" max="11" width="21.13"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="58" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>217</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>218</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>219</v>
+      </c>
+      <c r="F1" s="59" t="s">
+        <v>220</v>
+      </c>
+      <c r="G1" s="58" t="s">
+        <v>221</v>
+      </c>
+      <c r="H1" s="60" t="s">
+        <v>222</v>
+      </c>
+      <c r="I1" s="60" t="s">
+        <v>223</v>
+      </c>
+      <c r="J1" s="60" t="s">
+        <v>224</v>
+      </c>
+      <c r="K1" s="60" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" ht="22.5" customHeight="1">
+      <c r="A2" s="19"/>
+      <c r="B2" s="61" t="s">
+        <v>226</v>
+      </c>
+      <c r="C2" s="61">
+        <v>0.0</v>
+      </c>
+      <c r="D2" s="62"/>
+      <c r="E2" s="63" t="s">
+        <v>227</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="G2" s="29"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35" t="str">
+        <f t="shared" ref="J2:J7" si="1">CONCAT("var",C2)</f>
+        <v>var0</v>
+      </c>
+      <c r="K2" s="35"/>
+    </row>
+    <row r="3" ht="22.5" customHeight="1">
+      <c r="A3" s="19"/>
+      <c r="B3" s="61" t="s">
+        <v>226</v>
+      </c>
+      <c r="C3" s="61">
+        <v>1.0</v>
+      </c>
+      <c r="D3" s="62"/>
+      <c r="E3" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="G3" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="H3" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>var1</v>
+      </c>
+      <c r="K3" s="35"/>
+    </row>
+    <row r="4" ht="22.5" customHeight="1">
+      <c r="A4" s="19"/>
+      <c r="B4" s="61" t="s">
+        <v>226</v>
+      </c>
+      <c r="C4" s="61">
+        <v>2.0</v>
+      </c>
+      <c r="D4" s="62"/>
+      <c r="E4" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="G4" s="64" t="s">
+        <v>233</v>
+      </c>
+      <c r="H4" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>var2</v>
+      </c>
+      <c r="K4" s="35"/>
+    </row>
+    <row r="5" ht="22.5" customHeight="1">
+      <c r="A5" s="19"/>
+      <c r="B5" s="61" t="s">
+        <v>226</v>
+      </c>
+      <c r="C5" s="61">
+        <v>3.0</v>
+      </c>
+      <c r="D5" s="62"/>
+      <c r="E5" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="G5" s="65" t="s">
+        <v>235</v>
+      </c>
+      <c r="H5" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>var3</v>
+      </c>
+      <c r="K5" s="35"/>
+    </row>
+    <row r="6" ht="22.5" customHeight="1">
+      <c r="A6" s="19"/>
+      <c r="B6" s="61" t="s">
+        <v>226</v>
+      </c>
+      <c r="C6" s="61">
+        <v>4.0</v>
+      </c>
+      <c r="D6" s="62"/>
+      <c r="E6" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="G6" s="64" t="s">
+        <v>237</v>
+      </c>
+      <c r="H6" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>var4</v>
+      </c>
+      <c r="K6" s="35"/>
+    </row>
+    <row r="7" ht="22.5" customHeight="1">
+      <c r="A7" s="35"/>
+      <c r="B7" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="C7" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="D7" s="35"/>
+      <c r="E7" s="66" t="s">
+        <v>293</v>
+      </c>
+      <c r="F7" s="69" t="s">
+        <v>254</v>
+      </c>
+      <c r="G7" s="67" t="s">
+        <v>247</v>
+      </c>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>var5</v>
+      </c>
+      <c r="K7" s="35"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="$A$1:$G$7"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/temp_Matriz2.xlsx
+++ b/temp_Matriz2.xlsx
@@ -6,18 +6,18 @@
     <sheet state="visible" name="Hoja1" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Cuestionario 21012022" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="Formato_IpressTest" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Formato_test 2" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="Formato_Comisarias" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">Formato_IpressTest!$A$1:$G$100</definedName>
-    <definedName hidden="1" localSheetId="3" name="_xlnm._FilterDatabase">'Formato_test 2'!$A$1:$G$7</definedName>
+    <definedName hidden="1" localSheetId="3" name="_xlnm._FilterDatabase">Formato_Comisarias!$A$1:$G$8</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="303">
   <si>
     <t>Propuesta 2023
 Indicador</t>
@@ -1065,6 +1065,9 @@
     <t>DependenciaSiNo</t>
   </si>
   <si>
+    <t>Validar</t>
+  </si>
+  <si>
     <t>Seccion 0</t>
   </si>
   <si>
@@ -1434,14 +1437,38 @@
     <t>Ambulancia|Transporte público|Transporte de autoridad local|Transporte comunitario automotor|Transporte comunitario rústico|Embarcaciones o canoas</t>
   </si>
   <si>
-    <t>Pregunta 5</t>
+    <t>¿En que Departamento se encuentra la Comisaria?</t>
+  </si>
+  <si>
+    <t>Comisarias_Metadata</t>
+  </si>
+  <si>
+    <t>¿En que Provincia se encuentra la Comisaria?</t>
+  </si>
+  <si>
+    <t>¿En que Distrito se encuentra la Comisaria?</t>
+  </si>
+  <si>
+    <t>¿Cual es el nombre de la Comisaria?</t>
+  </si>
+  <si>
+    <t>¿Numero total de  vehículos de patrullaje?</t>
+  </si>
+  <si>
+    <t>¿Numero total de  vehículos de patrullaje en funcionamiento?</t>
+  </si>
+  <si>
+    <t>var6</t>
+  </si>
+  <si>
+    <t>&lt;=5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -1485,6 +1512,12 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -1778,7 +1811,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1980,6 +2013,9 @@
     </xf>
     <xf borderId="18" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -57951,7 +57987,7 @@
     <col customWidth="1" min="6" max="6" width="14.75"/>
     <col customWidth="1" min="7" max="7" width="25.88"/>
     <col customWidth="1" min="8" max="9" width="9.38"/>
-    <col customWidth="1" min="10" max="11" width="21.13"/>
+    <col customWidth="1" min="10" max="12" width="21.13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -57988,21 +58024,24 @@
       <c r="K1" s="60" t="s">
         <v>225</v>
       </c>
+      <c r="L1" s="60" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="2" ht="22.5" customHeight="1">
       <c r="A2" s="19"/>
       <c r="B2" s="61" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C2" s="61">
         <v>0.0</v>
       </c>
       <c r="D2" s="62"/>
       <c r="E2" s="63" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G2" s="29"/>
       <c r="H2" s="35"/>
@@ -58012,24 +58051,25 @@
         <v>var0</v>
       </c>
       <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
     </row>
     <row r="3" ht="22.5" customHeight="1">
       <c r="A3" s="19"/>
       <c r="B3" s="61" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C3" s="61">
         <v>1.0</v>
       </c>
       <c r="D3" s="62"/>
       <c r="E3" s="26" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G3" s="64" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H3" s="26">
         <v>1.0</v>
@@ -58040,24 +58080,25 @@
         <v>var1</v>
       </c>
       <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
     </row>
     <row r="4" ht="22.5" customHeight="1">
       <c r="A4" s="19"/>
       <c r="B4" s="61" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C4" s="61">
         <v>2.0</v>
       </c>
       <c r="D4" s="62"/>
       <c r="E4" s="26" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G4" s="64" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H4" s="26">
         <v>2.0</v>
@@ -58068,24 +58109,25 @@
         <v>var2</v>
       </c>
       <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
     </row>
     <row r="5" ht="22.5" customHeight="1">
       <c r="A5" s="19"/>
       <c r="B5" s="61" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C5" s="61">
         <v>3.0</v>
       </c>
       <c r="D5" s="62"/>
       <c r="E5" s="26" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G5" s="65" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H5" s="26">
         <v>3.0</v>
@@ -58096,24 +58138,25 @@
         <v>var3</v>
       </c>
       <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
     </row>
     <row r="6" ht="22.5" customHeight="1">
       <c r="A6" s="19"/>
       <c r="B6" s="61" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C6" s="61">
         <v>4.0</v>
       </c>
       <c r="D6" s="62"/>
       <c r="E6" s="26" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G6" s="64" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H6" s="26">
         <v>4.0</v>
@@ -58124,52 +58167,54 @@
         <v>var4</v>
       </c>
       <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
     </row>
     <row r="7" ht="22.5" customHeight="1">
       <c r="A7" s="19"/>
       <c r="B7" s="61" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C7" s="61"/>
       <c r="D7" s="62"/>
       <c r="E7" s="64"/>
       <c r="F7" s="26" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G7" s="64" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H7" s="66">
         <v>4.0</v>
       </c>
       <c r="I7" s="66" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J7" s="35" t="str">
         <f t="shared" si="1"/>
         <v>var</v>
       </c>
       <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
     </row>
     <row r="8" ht="22.5" customHeight="1">
       <c r="A8" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B8" s="61" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C8" s="61">
         <v>5.0</v>
       </c>
       <c r="D8" s="62"/>
       <c r="E8" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G8" s="67" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H8" s="35"/>
       <c r="I8" s="35"/>
@@ -58178,26 +58223,27 @@
         <v>var5</v>
       </c>
       <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
     </row>
     <row r="9" ht="22.5" customHeight="1">
       <c r="A9" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B9" s="61" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C9" s="61">
         <v>6.0</v>
       </c>
       <c r="D9" s="62"/>
       <c r="E9" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G9" s="67" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H9" s="35"/>
       <c r="I9" s="35"/>
@@ -58206,26 +58252,27 @@
         <v>var6</v>
       </c>
       <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
     </row>
     <row r="10" ht="22.5" customHeight="1">
       <c r="A10" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="61" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C10" s="61">
         <v>7.0</v>
       </c>
       <c r="D10" s="62"/>
       <c r="E10" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G10" s="67" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H10" s="35"/>
       <c r="I10" s="35"/>
@@ -58234,13 +58281,14 @@
         <v>var7</v>
       </c>
       <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
     </row>
     <row r="11" ht="22.5" customHeight="1">
       <c r="A11" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="61" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C11" s="61">
         <v>8.0</v>
@@ -58250,7 +58298,7 @@
         <v>21</v>
       </c>
       <c r="F11" s="69" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>5</v>
@@ -58262,13 +58310,14 @@
         <v>var8</v>
       </c>
       <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
     </row>
     <row r="12" ht="22.5" customHeight="1">
       <c r="A12" s="19" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="61" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C12" s="61">
         <v>9.0</v>
@@ -58278,7 +58327,7 @@
         <v>23</v>
       </c>
       <c r="F12" s="69" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G12" s="19" t="s">
         <v>24</v>
@@ -58290,13 +58339,14 @@
         <v>var9</v>
       </c>
       <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
     </row>
     <row r="13" ht="22.5" customHeight="1">
       <c r="A13" s="19" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="61" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C13" s="61">
         <v>10.0</v>
@@ -58308,7 +58358,7 @@
         <v>25</v>
       </c>
       <c r="F13" s="69" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>5</v>
@@ -58322,13 +58372,14 @@
       <c r="K13" s="71" t="s">
         <v>144</v>
       </c>
+      <c r="L13" s="71"/>
     </row>
     <row r="14" ht="22.5" customHeight="1">
       <c r="A14" s="19" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="61" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C14" s="61">
         <v>11.0</v>
@@ -58340,7 +58391,7 @@
         <v>26</v>
       </c>
       <c r="F14" s="69" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>5</v>
@@ -58354,13 +58405,14 @@
       <c r="K14" s="71" t="s">
         <v>144</v>
       </c>
+      <c r="L14" s="71"/>
     </row>
     <row r="15" ht="22.5" customHeight="1">
       <c r="A15" s="19" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="61" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C15" s="61">
         <v>12.0</v>
@@ -58370,7 +58422,7 @@
         <v>28</v>
       </c>
       <c r="F15" s="69" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G15" s="19" t="s">
         <v>24</v>
@@ -58382,13 +58434,14 @@
         <v>var12</v>
       </c>
       <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
     </row>
     <row r="16" ht="22.5" customHeight="1">
       <c r="A16" s="19" t="s">
         <v>27</v>
       </c>
       <c r="B16" s="61" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C16" s="61">
         <v>13.0</v>
@@ -58397,10 +58450,10 @@
         <v>12.0</v>
       </c>
       <c r="E16" s="72" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F16" s="69" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>5</v>
@@ -58414,13 +58467,14 @@
       <c r="K16" s="71" t="s">
         <v>144</v>
       </c>
+      <c r="L16" s="71"/>
     </row>
     <row r="17" ht="22.5" customHeight="1">
       <c r="A17" s="19" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="61" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C17" s="61">
         <v>14.0</v>
@@ -58432,7 +58486,7 @@
         <v>30</v>
       </c>
       <c r="F17" s="69" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>5</v>
@@ -58446,13 +58500,14 @@
       <c r="K17" s="71" t="s">
         <v>144</v>
       </c>
+      <c r="L17" s="71"/>
     </row>
     <row r="18" ht="22.5" customHeight="1">
       <c r="A18" s="19" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="61" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C18" s="61">
         <v>15.0</v>
@@ -58462,7 +58517,7 @@
         <v>31</v>
       </c>
       <c r="F18" s="69" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G18" s="19" t="s">
         <v>24</v>
@@ -58474,13 +58529,14 @@
         <v>var15</v>
       </c>
       <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
     </row>
     <row r="19" ht="22.5" customHeight="1">
       <c r="A19" s="19" t="s">
         <v>27</v>
       </c>
       <c r="B19" s="61" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C19" s="61">
         <v>16.0</v>
@@ -58492,7 +58548,7 @@
         <v>32</v>
       </c>
       <c r="F19" s="69" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>5</v>
@@ -58506,13 +58562,14 @@
       <c r="K19" s="71" t="s">
         <v>144</v>
       </c>
+      <c r="L19" s="71"/>
     </row>
     <row r="20" ht="22.5" customHeight="1">
       <c r="A20" s="19" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="61" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C20" s="61">
         <v>17.0</v>
@@ -58524,7 +58581,7 @@
         <v>33</v>
       </c>
       <c r="F20" s="69" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>5</v>
@@ -58538,13 +58595,14 @@
       <c r="K20" s="71" t="s">
         <v>144</v>
       </c>
+      <c r="L20" s="71"/>
     </row>
     <row r="21" ht="22.5" customHeight="1">
       <c r="A21" s="19" t="s">
         <v>34</v>
       </c>
       <c r="B21" s="61" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C21" s="61">
         <v>18.0</v>
@@ -58554,7 +58612,7 @@
         <v>35</v>
       </c>
       <c r="F21" s="69" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>24</v>
@@ -58571,7 +58629,7 @@
         <v>34</v>
       </c>
       <c r="B22" s="61" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C22" s="61">
         <v>19.0</v>
@@ -58581,7 +58639,7 @@
         <v>36</v>
       </c>
       <c r="F22" s="69" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>37</v>
@@ -58593,13 +58651,14 @@
         <v>var19</v>
       </c>
       <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
     </row>
     <row r="23" ht="22.5" customHeight="1">
       <c r="A23" s="19" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="61" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C23" s="61">
         <v>20.0</v>
@@ -58609,7 +58668,7 @@
         <v>39</v>
       </c>
       <c r="F23" s="69" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>40</v>
@@ -58621,23 +58680,24 @@
         <v>var20</v>
       </c>
       <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
     </row>
     <row r="24" ht="22.5" customHeight="1">
       <c r="A24" s="19" t="s">
         <v>38</v>
       </c>
       <c r="B24" s="61" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C24" s="61">
         <v>21.0</v>
       </c>
       <c r="D24" s="62"/>
       <c r="E24" s="73" t="s">
+        <v>262</v>
+      </c>
+      <c r="F24" s="69" t="s">
         <v>261</v>
-      </c>
-      <c r="F24" s="69" t="s">
-        <v>260</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>42</v>
@@ -58649,13 +58709,14 @@
         <v>var21</v>
       </c>
       <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
     </row>
     <row r="25" ht="22.5" customHeight="1">
       <c r="A25" s="19" t="s">
         <v>38</v>
       </c>
       <c r="B25" s="61" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C25" s="61">
         <v>22.0</v>
@@ -58665,7 +58726,7 @@
         <v>43</v>
       </c>
       <c r="F25" s="69" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>44</v>
@@ -58677,13 +58738,14 @@
         <v>var22</v>
       </c>
       <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
     </row>
     <row r="26" ht="22.5" customHeight="1">
       <c r="A26" s="19" t="s">
         <v>38</v>
       </c>
       <c r="B26" s="61" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C26" s="61">
         <v>23.0</v>
@@ -58693,7 +58755,7 @@
         <v>45</v>
       </c>
       <c r="F26" s="69" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>46</v>
@@ -58705,13 +58767,14 @@
         <v>var23</v>
       </c>
       <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
     </row>
     <row r="27" ht="22.5" customHeight="1">
       <c r="A27" s="19" t="s">
         <v>38</v>
       </c>
       <c r="B27" s="61" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C27" s="61">
         <v>24.0</v>
@@ -58721,7 +58784,7 @@
         <v>47</v>
       </c>
       <c r="F27" s="69" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>42</v>
@@ -58733,13 +58796,14 @@
         <v>var24</v>
       </c>
       <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
     </row>
     <row r="28" ht="22.5" customHeight="1">
       <c r="A28" s="19" t="s">
         <v>38</v>
       </c>
       <c r="B28" s="61" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C28" s="61">
         <v>25.0</v>
@@ -58749,7 +58813,7 @@
         <v>48</v>
       </c>
       <c r="F28" s="69" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>44</v>
@@ -58761,23 +58825,24 @@
         <v>var25</v>
       </c>
       <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
     </row>
     <row r="29" ht="22.5" customHeight="1">
       <c r="A29" s="19" t="s">
         <v>38</v>
       </c>
       <c r="B29" s="61" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C29" s="61">
         <v>26.0</v>
       </c>
       <c r="D29" s="62"/>
       <c r="E29" s="73" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F29" s="69" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>24</v>
@@ -58789,13 +58854,14 @@
         <v>var26</v>
       </c>
       <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
     </row>
     <row r="30" ht="22.5" customHeight="1">
       <c r="A30" s="19" t="s">
         <v>38</v>
       </c>
       <c r="B30" s="61" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C30" s="61">
         <v>27.0</v>
@@ -58805,7 +58871,7 @@
         <v>50</v>
       </c>
       <c r="F30" s="69" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>24</v>
@@ -58817,13 +58883,14 @@
         <v>var27</v>
       </c>
       <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
     </row>
     <row r="31" ht="22.5" customHeight="1">
       <c r="A31" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B31" s="61" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C31" s="61">
         <v>28.0</v>
@@ -58833,7 +58900,7 @@
         <v>51</v>
       </c>
       <c r="F31" s="69" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G31" s="8" t="s">
         <v>24</v>
@@ -58845,13 +58912,14 @@
         <v>var28</v>
       </c>
       <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
     </row>
     <row r="32" ht="22.5" customHeight="1">
       <c r="A32" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B32" s="61" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C32" s="61">
         <v>29.0</v>
@@ -58863,10 +58931,10 @@
         <v>52</v>
       </c>
       <c r="F32" s="69" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G32" s="29" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H32" s="26"/>
       <c r="I32" s="35"/>
@@ -58877,13 +58945,14 @@
       <c r="K32" s="71" t="s">
         <v>144</v>
       </c>
+      <c r="L32" s="71"/>
     </row>
     <row r="33" ht="22.5" customHeight="1">
       <c r="A33" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B33" s="61" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C33" s="61">
         <v>30.0</v>
@@ -58892,13 +58961,13 @@
         <v>28.0</v>
       </c>
       <c r="E33" s="75" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F33" s="69" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G33" s="26" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H33" s="26"/>
       <c r="I33" s="35"/>
@@ -58907,15 +58976,16 @@
         <v>var30</v>
       </c>
       <c r="K33" s="71" t="s">
-        <v>239</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="L33" s="71"/>
     </row>
     <row r="34" ht="22.5" customHeight="1">
       <c r="A34" s="19" t="s">
         <v>56</v>
       </c>
       <c r="B34" s="61" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C34" s="61">
         <v>31.0</v>
@@ -58925,7 +58995,7 @@
         <v>57</v>
       </c>
       <c r="F34" s="69" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G34" s="19" t="s">
         <v>24</v>
@@ -58937,13 +59007,14 @@
         <v>var31</v>
       </c>
       <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
     </row>
     <row r="35" ht="22.5" customHeight="1">
       <c r="A35" s="19" t="s">
         <v>56</v>
       </c>
       <c r="B35" s="61" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C35" s="61">
         <v>32.0</v>
@@ -58955,7 +59026,7 @@
         <v>58</v>
       </c>
       <c r="F35" s="69" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G35" s="8" t="s">
         <v>5</v>
@@ -58969,13 +59040,14 @@
       <c r="K35" s="71" t="s">
         <v>144</v>
       </c>
+      <c r="L35" s="71"/>
     </row>
     <row r="36" ht="22.5" customHeight="1">
       <c r="A36" s="19" t="s">
         <v>56</v>
       </c>
       <c r="B36" s="61" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C36" s="61">
         <v>33.0</v>
@@ -58987,7 +59059,7 @@
         <v>59</v>
       </c>
       <c r="F36" s="69" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G36" s="8" t="s">
         <v>5</v>
@@ -59001,13 +59073,14 @@
       <c r="K36" s="71" t="s">
         <v>144</v>
       </c>
+      <c r="L36" s="71"/>
     </row>
     <row r="37" ht="22.5" customHeight="1">
       <c r="A37" s="19" t="s">
         <v>56</v>
       </c>
       <c r="B37" s="61" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C37" s="61">
         <v>34.0</v>
@@ -59017,7 +59090,7 @@
         <v>60</v>
       </c>
       <c r="F37" s="69" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G37" s="19" t="s">
         <v>24</v>
@@ -59029,13 +59102,14 @@
         <v>var34</v>
       </c>
       <c r="K37" s="35"/>
+      <c r="L37" s="35"/>
     </row>
     <row r="38" ht="22.5" customHeight="1">
       <c r="A38" s="19" t="s">
         <v>56</v>
       </c>
       <c r="B38" s="61" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C38" s="61">
         <v>35.0</v>
@@ -59047,7 +59121,7 @@
         <v>61</v>
       </c>
       <c r="F38" s="69" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G38" s="8" t="s">
         <v>5</v>
@@ -59061,13 +59135,14 @@
       <c r="K38" s="71" t="s">
         <v>144</v>
       </c>
+      <c r="L38" s="71"/>
     </row>
     <row r="39" ht="22.5" customHeight="1">
       <c r="A39" s="19" t="s">
         <v>56</v>
       </c>
       <c r="B39" s="61" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C39" s="61">
         <v>36.0</v>
@@ -59079,7 +59154,7 @@
         <v>62</v>
       </c>
       <c r="F39" s="69" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G39" s="8" t="s">
         <v>5</v>
@@ -59093,13 +59168,14 @@
       <c r="K39" s="71" t="s">
         <v>144</v>
       </c>
+      <c r="L39" s="71"/>
     </row>
     <row r="40" ht="22.5" customHeight="1">
       <c r="A40" s="19" t="s">
         <v>63</v>
       </c>
       <c r="B40" s="61" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C40" s="61">
         <v>37.0</v>
@@ -59109,7 +59185,7 @@
         <v>64</v>
       </c>
       <c r="F40" s="69" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G40" s="8" t="s">
         <v>5</v>
@@ -59121,13 +59197,14 @@
         <v>var37</v>
       </c>
       <c r="K40" s="35"/>
+      <c r="L40" s="35"/>
     </row>
     <row r="41" ht="22.5" customHeight="1">
       <c r="A41" s="19" t="s">
         <v>63</v>
       </c>
       <c r="B41" s="61" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C41" s="61">
         <v>38.0</v>
@@ -59137,7 +59214,7 @@
         <v>65</v>
       </c>
       <c r="F41" s="69" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G41" s="8" t="s">
         <v>5</v>
@@ -59149,13 +59226,14 @@
         <v>var38</v>
       </c>
       <c r="K41" s="35"/>
+      <c r="L41" s="35"/>
     </row>
     <row r="42" ht="22.5" customHeight="1">
       <c r="A42" s="19" t="s">
         <v>63</v>
       </c>
       <c r="B42" s="61" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C42" s="61">
         <v>39.0</v>
@@ -59165,7 +59243,7 @@
         <v>66</v>
       </c>
       <c r="F42" s="69" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G42" s="19" t="s">
         <v>24</v>
@@ -59177,13 +59255,14 @@
         <v>var39</v>
       </c>
       <c r="K42" s="35"/>
+      <c r="L42" s="35"/>
     </row>
     <row r="43" ht="22.5" customHeight="1">
       <c r="A43" s="19" t="s">
         <v>63</v>
       </c>
       <c r="B43" s="61" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C43" s="61">
         <v>40.0</v>
@@ -59192,10 +59271,10 @@
         <v>37.0</v>
       </c>
       <c r="E43" s="72" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F43" s="69" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G43" s="8" t="s">
         <v>5</v>
@@ -59209,13 +59288,14 @@
       <c r="K43" s="71" t="s">
         <v>144</v>
       </c>
+      <c r="L43" s="71"/>
     </row>
     <row r="44" ht="22.5" customHeight="1">
       <c r="A44" s="19" t="s">
         <v>63</v>
       </c>
       <c r="B44" s="61" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C44" s="61">
         <v>41.0</v>
@@ -59227,7 +59307,7 @@
         <v>68</v>
       </c>
       <c r="F44" s="69" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G44" s="8" t="s">
         <v>5</v>
@@ -59241,13 +59321,14 @@
       <c r="K44" s="71" t="s">
         <v>144</v>
       </c>
+      <c r="L44" s="71"/>
     </row>
     <row r="45" ht="22.5" customHeight="1">
       <c r="A45" s="8" t="s">
         <v>69</v>
       </c>
       <c r="B45" s="61" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C45" s="61">
         <v>42.0</v>
@@ -59257,10 +59338,10 @@
         <v>70</v>
       </c>
       <c r="F45" s="73" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G45" s="29" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H45" s="35"/>
       <c r="I45" s="35"/>
@@ -59269,13 +59350,14 @@
         <v>var42</v>
       </c>
       <c r="K45" s="35"/>
+      <c r="L45" s="35"/>
     </row>
     <row r="46" ht="22.5" customHeight="1">
       <c r="A46" s="19" t="s">
         <v>73</v>
       </c>
       <c r="B46" s="61" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C46" s="61">
         <v>43.0</v>
@@ -59285,7 +59367,7 @@
         <v>74</v>
       </c>
       <c r="F46" s="69" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G46" s="8" t="s">
         <v>24</v>
@@ -59297,23 +59379,24 @@
         <v>var43</v>
       </c>
       <c r="K46" s="35"/>
+      <c r="L46" s="35"/>
     </row>
     <row r="47" ht="22.5" customHeight="1">
       <c r="A47" s="19" t="s">
         <v>73</v>
       </c>
       <c r="B47" s="61" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C47" s="61">
         <v>44.0</v>
       </c>
       <c r="D47" s="62"/>
       <c r="E47" s="73" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F47" s="69" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G47" s="8" t="s">
         <v>24</v>
@@ -59325,13 +59408,14 @@
         <v>var44</v>
       </c>
       <c r="K47" s="35"/>
+      <c r="L47" s="35"/>
     </row>
     <row r="48" ht="22.5" customHeight="1">
       <c r="A48" s="19" t="s">
         <v>73</v>
       </c>
       <c r="B48" s="61" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C48" s="61">
         <v>45.0</v>
@@ -59341,7 +59425,7 @@
         <v>76</v>
       </c>
       <c r="F48" s="69" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G48" s="8" t="s">
         <v>24</v>
@@ -59353,13 +59437,14 @@
         <v>var45</v>
       </c>
       <c r="K48" s="35"/>
+      <c r="L48" s="35"/>
     </row>
     <row r="49" ht="22.5" customHeight="1">
       <c r="A49" s="19" t="s">
         <v>73</v>
       </c>
       <c r="B49" s="61" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C49" s="61">
         <v>46.0</v>
@@ -59369,7 +59454,7 @@
         <v>77</v>
       </c>
       <c r="F49" s="69" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G49" s="8" t="s">
         <v>24</v>
@@ -59381,13 +59466,14 @@
         <v>var46</v>
       </c>
       <c r="K49" s="35"/>
+      <c r="L49" s="35"/>
     </row>
     <row r="50" ht="22.5" customHeight="1">
       <c r="A50" s="19" t="s">
         <v>73</v>
       </c>
       <c r="B50" s="61" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C50" s="61">
         <v>47.0</v>
@@ -59397,7 +59483,7 @@
         <v>78</v>
       </c>
       <c r="F50" s="69" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G50" s="8" t="s">
         <v>24</v>
@@ -59409,13 +59495,14 @@
         <v>var47</v>
       </c>
       <c r="K50" s="35"/>
+      <c r="L50" s="35"/>
     </row>
     <row r="51" ht="22.5" customHeight="1">
       <c r="A51" s="19" t="s">
         <v>73</v>
       </c>
       <c r="B51" s="61" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C51" s="61">
         <v>48.0</v>
@@ -59425,7 +59512,7 @@
         <v>79</v>
       </c>
       <c r="F51" s="69" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G51" s="8" t="s">
         <v>24</v>
@@ -59437,13 +59524,14 @@
         <v>var48</v>
       </c>
       <c r="K51" s="35"/>
+      <c r="L51" s="35"/>
     </row>
     <row r="52" ht="22.5" customHeight="1">
       <c r="A52" s="19" t="s">
         <v>80</v>
       </c>
       <c r="B52" s="61" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C52" s="61">
         <v>49.0</v>
@@ -59453,7 +59541,7 @@
         <v>81</v>
       </c>
       <c r="F52" s="69" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G52" s="8" t="s">
         <v>24</v>
@@ -59465,13 +59553,14 @@
         <v>var49</v>
       </c>
       <c r="K52" s="35"/>
+      <c r="L52" s="35"/>
     </row>
     <row r="53" ht="22.5" customHeight="1">
       <c r="A53" s="19" t="s">
         <v>80</v>
       </c>
       <c r="B53" s="61" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C53" s="61">
         <v>50.0</v>
@@ -59481,7 +59570,7 @@
         <v>82</v>
       </c>
       <c r="F53" s="69" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G53" s="8" t="s">
         <v>24</v>
@@ -59493,13 +59582,14 @@
         <v>var50</v>
       </c>
       <c r="K53" s="35"/>
+      <c r="L53" s="35"/>
     </row>
     <row r="54" ht="22.5" customHeight="1">
       <c r="A54" s="19" t="s">
         <v>80</v>
       </c>
       <c r="B54" s="61" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C54" s="61">
         <v>51.0</v>
@@ -59509,7 +59599,7 @@
         <v>83</v>
       </c>
       <c r="F54" s="69" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G54" s="8" t="s">
         <v>24</v>
@@ -59521,13 +59611,14 @@
         <v>var51</v>
       </c>
       <c r="K54" s="35"/>
+      <c r="L54" s="35"/>
     </row>
     <row r="55" ht="22.5" customHeight="1">
       <c r="A55" s="19" t="s">
         <v>80</v>
       </c>
       <c r="B55" s="61" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C55" s="61">
         <v>52.0</v>
@@ -59537,7 +59628,7 @@
         <v>84</v>
       </c>
       <c r="F55" s="69" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G55" s="8" t="s">
         <v>24</v>
@@ -59549,13 +59640,14 @@
         <v>var52</v>
       </c>
       <c r="K55" s="35"/>
+      <c r="L55" s="35"/>
     </row>
     <row r="56" ht="22.5" customHeight="1">
       <c r="A56" s="19" t="s">
         <v>80</v>
       </c>
       <c r="B56" s="61" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C56" s="61">
         <v>53.0</v>
@@ -59565,7 +59657,7 @@
         <v>85</v>
       </c>
       <c r="F56" s="69" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G56" s="8" t="s">
         <v>24</v>
@@ -59577,13 +59669,14 @@
         <v>var53</v>
       </c>
       <c r="K56" s="35"/>
+      <c r="L56" s="35"/>
     </row>
     <row r="57" ht="22.5" customHeight="1">
       <c r="A57" s="19" t="s">
         <v>80</v>
       </c>
       <c r="B57" s="61" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C57" s="61">
         <v>54.0</v>
@@ -59593,7 +59686,7 @@
         <v>86</v>
       </c>
       <c r="F57" s="69" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G57" s="8" t="s">
         <v>24</v>
@@ -59605,13 +59698,14 @@
         <v>var54</v>
       </c>
       <c r="K57" s="35"/>
+      <c r="L57" s="35"/>
     </row>
     <row r="58" ht="22.5" customHeight="1">
       <c r="A58" s="19" t="s">
         <v>80</v>
       </c>
       <c r="B58" s="61" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C58" s="61">
         <v>55.0</v>
@@ -59621,7 +59715,7 @@
         <v>87</v>
       </c>
       <c r="F58" s="69" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G58" s="8" t="s">
         <v>24</v>
@@ -59633,13 +59727,14 @@
         <v>var55</v>
       </c>
       <c r="K58" s="35"/>
+      <c r="L58" s="35"/>
     </row>
     <row r="59" ht="22.5" customHeight="1">
       <c r="A59" s="19" t="s">
         <v>80</v>
       </c>
       <c r="B59" s="61" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C59" s="61">
         <v>56.0</v>
@@ -59649,7 +59744,7 @@
         <v>88</v>
       </c>
       <c r="F59" s="69" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G59" s="8" t="s">
         <v>24</v>
@@ -59661,13 +59756,14 @@
         <v>var56</v>
       </c>
       <c r="K59" s="35"/>
+      <c r="L59" s="35"/>
     </row>
     <row r="60" ht="22.5" customHeight="1">
       <c r="A60" s="19" t="s">
         <v>80</v>
       </c>
       <c r="B60" s="61" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C60" s="61">
         <v>57.0</v>
@@ -59677,7 +59773,7 @@
         <v>89</v>
       </c>
       <c r="F60" s="69" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G60" s="8" t="s">
         <v>24</v>
@@ -59689,13 +59785,14 @@
         <v>var57</v>
       </c>
       <c r="K60" s="35"/>
+      <c r="L60" s="35"/>
     </row>
     <row r="61" ht="22.5" customHeight="1">
       <c r="A61" s="19" t="s">
         <v>80</v>
       </c>
       <c r="B61" s="61" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C61" s="61">
         <v>58.0</v>
@@ -59705,7 +59802,7 @@
         <v>90</v>
       </c>
       <c r="F61" s="69" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G61" s="8" t="s">
         <v>24</v>
@@ -59717,13 +59814,14 @@
         <v>var58</v>
       </c>
       <c r="K61" s="35"/>
+      <c r="L61" s="35"/>
     </row>
     <row r="62" ht="22.5" customHeight="1">
       <c r="A62" s="19" t="s">
         <v>80</v>
       </c>
       <c r="B62" s="61" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C62" s="61">
         <v>59.0</v>
@@ -59733,7 +59831,7 @@
         <v>91</v>
       </c>
       <c r="F62" s="69" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G62" s="8" t="s">
         <v>24</v>
@@ -59745,13 +59843,14 @@
         <v>var59</v>
       </c>
       <c r="K62" s="35"/>
+      <c r="L62" s="35"/>
     </row>
     <row r="63" ht="22.5" customHeight="1">
       <c r="A63" s="19" t="s">
         <v>80</v>
       </c>
       <c r="B63" s="61" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C63" s="61">
         <v>60.0</v>
@@ -59761,7 +59860,7 @@
         <v>92</v>
       </c>
       <c r="F63" s="69" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G63" s="8" t="s">
         <v>24</v>
@@ -59773,13 +59872,14 @@
         <v>var60</v>
       </c>
       <c r="K63" s="35"/>
+      <c r="L63" s="35"/>
     </row>
     <row r="64" ht="22.5" customHeight="1">
       <c r="A64" s="19" t="s">
         <v>80</v>
       </c>
       <c r="B64" s="61" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C64" s="61">
         <v>61.0</v>
@@ -59789,7 +59889,7 @@
         <v>93</v>
       </c>
       <c r="F64" s="69" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G64" s="8" t="s">
         <v>24</v>
@@ -59801,13 +59901,14 @@
         <v>var61</v>
       </c>
       <c r="K64" s="35"/>
+      <c r="L64" s="35"/>
     </row>
     <row r="65" ht="22.5" customHeight="1">
       <c r="A65" s="19" t="s">
         <v>80</v>
       </c>
       <c r="B65" s="61" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C65" s="61">
         <v>62.0</v>
@@ -59817,7 +59918,7 @@
         <v>94</v>
       </c>
       <c r="F65" s="69" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G65" s="8" t="s">
         <v>24</v>
@@ -59829,13 +59930,14 @@
         <v>var62</v>
       </c>
       <c r="K65" s="35"/>
+      <c r="L65" s="35"/>
     </row>
     <row r="66" ht="22.5" customHeight="1">
       <c r="A66" s="19" t="s">
         <v>80</v>
       </c>
       <c r="B66" s="61" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C66" s="61">
         <v>63.0</v>
@@ -59845,7 +59947,7 @@
         <v>186</v>
       </c>
       <c r="F66" s="69" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G66" s="8" t="s">
         <v>24</v>
@@ -59857,13 +59959,14 @@
         <v>var63</v>
       </c>
       <c r="K66" s="35"/>
+      <c r="L66" s="35"/>
     </row>
     <row r="67" ht="22.5" customHeight="1">
       <c r="A67" s="19" t="s">
         <v>96</v>
       </c>
       <c r="B67" s="61" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C67" s="61">
         <v>64.0</v>
@@ -59873,10 +59976,10 @@
         <v>97</v>
       </c>
       <c r="F67" s="69" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G67" s="29" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H67" s="35"/>
       <c r="I67" s="35"/>
@@ -59885,13 +59988,14 @@
         <v>var64</v>
       </c>
       <c r="K67" s="35"/>
+      <c r="L67" s="35"/>
     </row>
     <row r="68" ht="22.5" customHeight="1">
       <c r="A68" s="19" t="s">
         <v>96</v>
       </c>
       <c r="B68" s="61" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C68" s="61">
         <v>65.0</v>
@@ -59901,10 +60005,10 @@
         <v>99</v>
       </c>
       <c r="F68" s="69" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G68" s="29" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H68" s="35"/>
       <c r="I68" s="35"/>
@@ -59913,13 +60017,14 @@
         <v>var65</v>
       </c>
       <c r="K68" s="35"/>
+      <c r="L68" s="35"/>
     </row>
     <row r="69" ht="22.5" customHeight="1">
       <c r="A69" s="19" t="s">
         <v>96</v>
       </c>
       <c r="B69" s="61" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C69" s="61">
         <v>66.0</v>
@@ -59929,10 +60034,10 @@
         <v>101</v>
       </c>
       <c r="F69" s="69" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G69" s="29" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H69" s="35"/>
       <c r="I69" s="35"/>
@@ -59941,23 +60046,24 @@
         <v>var66</v>
       </c>
       <c r="K69" s="35"/>
+      <c r="L69" s="35"/>
     </row>
     <row r="70" ht="22.5" customHeight="1">
       <c r="A70" s="19" t="s">
         <v>96</v>
       </c>
       <c r="B70" s="61" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C70" s="61">
         <v>67.0</v>
       </c>
       <c r="D70" s="62"/>
       <c r="E70" s="73" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F70" s="69" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G70" s="8" t="s">
         <v>24</v>
@@ -59969,13 +60075,14 @@
         <v>var67</v>
       </c>
       <c r="K70" s="35"/>
+      <c r="L70" s="35"/>
     </row>
     <row r="71" ht="22.5" customHeight="1">
       <c r="A71" s="19" t="s">
         <v>96</v>
       </c>
       <c r="B71" s="61" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C71" s="61">
         <v>68.0</v>
@@ -59985,10 +60092,10 @@
         <v>104</v>
       </c>
       <c r="F71" s="69" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G71" s="29" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H71" s="35"/>
       <c r="I71" s="35"/>
@@ -59997,13 +60104,14 @@
         <v>var68</v>
       </c>
       <c r="K71" s="35"/>
+      <c r="L71" s="35"/>
     </row>
     <row r="72" ht="22.5" customHeight="1">
       <c r="A72" s="19" t="s">
         <v>96</v>
       </c>
       <c r="B72" s="61" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C72" s="61">
         <v>69.0</v>
@@ -60013,10 +60121,10 @@
         <v>106</v>
       </c>
       <c r="F72" s="69" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G72" s="29" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H72" s="35"/>
       <c r="I72" s="35"/>
@@ -60025,13 +60133,14 @@
         <v>var69</v>
       </c>
       <c r="K72" s="35"/>
+      <c r="L72" s="35"/>
     </row>
     <row r="73" ht="22.5" customHeight="1">
       <c r="A73" s="19" t="s">
         <v>96</v>
       </c>
       <c r="B73" s="61" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C73" s="61">
         <v>70.0</v>
@@ -60041,10 +60150,10 @@
         <v>108</v>
       </c>
       <c r="F73" s="69" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G73" s="29" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H73" s="35"/>
       <c r="I73" s="35"/>
@@ -60053,13 +60162,14 @@
         <v>var70</v>
       </c>
       <c r="K73" s="35"/>
+      <c r="L73" s="35"/>
     </row>
     <row r="74" ht="22.5" customHeight="1">
       <c r="A74" s="19" t="s">
         <v>96</v>
       </c>
       <c r="B74" s="61" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C74" s="61">
         <v>71.0</v>
@@ -60069,7 +60179,7 @@
         <v>110</v>
       </c>
       <c r="F74" s="69" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G74" s="8" t="s">
         <v>24</v>
@@ -60081,13 +60191,14 @@
         <v>var71</v>
       </c>
       <c r="K74" s="35"/>
+      <c r="L74" s="35"/>
     </row>
     <row r="75" ht="22.5" customHeight="1">
       <c r="A75" s="30" t="s">
         <v>111</v>
       </c>
       <c r="B75" s="61" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C75" s="61">
         <v>72.0</v>
@@ -60097,7 +60208,7 @@
         <v>112</v>
       </c>
       <c r="F75" s="69" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G75" s="8" t="s">
         <v>24</v>
@@ -60109,13 +60220,14 @@
         <v>var72</v>
       </c>
       <c r="K75" s="35"/>
+      <c r="L75" s="35"/>
     </row>
     <row r="76" ht="22.5" customHeight="1">
       <c r="A76" s="30" t="s">
         <v>111</v>
       </c>
       <c r="B76" s="61" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C76" s="61">
         <v>73.0</v>
@@ -60125,7 +60237,7 @@
         <v>113</v>
       </c>
       <c r="F76" s="69" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G76" s="8" t="s">
         <v>24</v>
@@ -60137,13 +60249,14 @@
         <v>var73</v>
       </c>
       <c r="K76" s="35"/>
+      <c r="L76" s="35"/>
     </row>
     <row r="77" ht="22.5" customHeight="1">
       <c r="A77" s="30" t="s">
         <v>111</v>
       </c>
       <c r="B77" s="61" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C77" s="61">
         <v>74.0</v>
@@ -60153,7 +60266,7 @@
         <v>114</v>
       </c>
       <c r="F77" s="69" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G77" s="8" t="s">
         <v>24</v>
@@ -60165,13 +60278,14 @@
         <v>var74</v>
       </c>
       <c r="K77" s="35"/>
+      <c r="L77" s="35"/>
     </row>
     <row r="78" ht="22.5" customHeight="1">
       <c r="A78" s="30" t="s">
         <v>111</v>
       </c>
       <c r="B78" s="61" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C78" s="61">
         <v>75.0</v>
@@ -60181,7 +60295,7 @@
         <v>115</v>
       </c>
       <c r="F78" s="69" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G78" s="8" t="s">
         <v>24</v>
@@ -60193,13 +60307,14 @@
         <v>var75</v>
       </c>
       <c r="K78" s="35"/>
+      <c r="L78" s="35"/>
     </row>
     <row r="79" ht="22.5" customHeight="1">
       <c r="A79" s="30" t="s">
         <v>111</v>
       </c>
       <c r="B79" s="61" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C79" s="61">
         <v>76.0</v>
@@ -60209,7 +60324,7 @@
         <v>116</v>
       </c>
       <c r="F79" s="69" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G79" s="8" t="s">
         <v>24</v>
@@ -60221,13 +60336,14 @@
         <v>var76</v>
       </c>
       <c r="K79" s="35"/>
+      <c r="L79" s="35"/>
     </row>
     <row r="80" ht="22.5" customHeight="1">
       <c r="A80" s="30" t="s">
         <v>111</v>
       </c>
       <c r="B80" s="61" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C80" s="61">
         <v>77.0</v>
@@ -60237,7 +60353,7 @@
         <v>117</v>
       </c>
       <c r="F80" s="69" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G80" s="8" t="s">
         <v>24</v>
@@ -60249,13 +60365,14 @@
         <v>var77</v>
       </c>
       <c r="K80" s="35"/>
+      <c r="L80" s="35"/>
     </row>
     <row r="81" ht="22.5" customHeight="1">
       <c r="A81" s="30" t="s">
         <v>111</v>
       </c>
       <c r="B81" s="61" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C81" s="61">
         <v>78.0</v>
@@ -60265,7 +60382,7 @@
         <v>118</v>
       </c>
       <c r="F81" s="69" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G81" s="8" t="s">
         <v>24</v>
@@ -60277,13 +60394,14 @@
         <v>var78</v>
       </c>
       <c r="K81" s="35"/>
+      <c r="L81" s="35"/>
     </row>
     <row r="82" ht="22.5" customHeight="1">
       <c r="A82" s="30" t="s">
         <v>111</v>
       </c>
       <c r="B82" s="61" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C82" s="61">
         <v>79.0</v>
@@ -60293,7 +60411,7 @@
         <v>119</v>
       </c>
       <c r="F82" s="69" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G82" s="8" t="s">
         <v>24</v>
@@ -60305,13 +60423,14 @@
         <v>var79</v>
       </c>
       <c r="K82" s="35"/>
+      <c r="L82" s="35"/>
     </row>
     <row r="83" ht="22.5" customHeight="1">
       <c r="A83" s="30" t="s">
         <v>111</v>
       </c>
       <c r="B83" s="61" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C83" s="61">
         <v>80.0</v>
@@ -60321,7 +60440,7 @@
         <v>120</v>
       </c>
       <c r="F83" s="69" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G83" s="8" t="s">
         <v>24</v>
@@ -60333,13 +60452,14 @@
         <v>var80</v>
       </c>
       <c r="K83" s="35"/>
+      <c r="L83" s="35"/>
     </row>
     <row r="84" ht="22.5" customHeight="1">
       <c r="A84" s="30" t="s">
         <v>111</v>
       </c>
       <c r="B84" s="61" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C84" s="61">
         <v>81.0</v>
@@ -60349,7 +60469,7 @@
         <v>121</v>
       </c>
       <c r="F84" s="69" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G84" s="8" t="s">
         <v>24</v>
@@ -60361,26 +60481,27 @@
         <v>var81</v>
       </c>
       <c r="K84" s="35"/>
+      <c r="L84" s="35"/>
     </row>
     <row r="85" ht="22.5" customHeight="1">
       <c r="A85" s="30" t="s">
         <v>111</v>
       </c>
       <c r="B85" s="61" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C85" s="61">
         <v>82.0</v>
       </c>
       <c r="D85" s="62"/>
       <c r="E85" s="73" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F85" s="69" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G85" s="29" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H85" s="35"/>
       <c r="I85" s="35"/>
@@ -60389,13 +60510,14 @@
         <v>var82</v>
       </c>
       <c r="K85" s="35"/>
+      <c r="L85" s="35"/>
     </row>
     <row r="86" ht="22.5" customHeight="1">
       <c r="A86" s="30" t="s">
         <v>111</v>
       </c>
       <c r="B86" s="61" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C86" s="61">
         <v>83.0</v>
@@ -60405,7 +60527,7 @@
         <v>124</v>
       </c>
       <c r="F86" s="69" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G86" s="8" t="s">
         <v>24</v>
@@ -60417,13 +60539,14 @@
         <v>var83</v>
       </c>
       <c r="K86" s="35"/>
+      <c r="L86" s="35"/>
     </row>
     <row r="87" ht="22.5" customHeight="1">
       <c r="A87" s="30" t="s">
         <v>111</v>
       </c>
       <c r="B87" s="61" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C87" s="61">
         <v>84.0</v>
@@ -60433,7 +60556,7 @@
         <v>125</v>
       </c>
       <c r="F87" s="69" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G87" s="8" t="s">
         <v>24</v>
@@ -60445,13 +60568,14 @@
         <v>var84</v>
       </c>
       <c r="K87" s="35"/>
+      <c r="L87" s="35"/>
     </row>
     <row r="88" ht="22.5" customHeight="1">
       <c r="A88" s="30" t="s">
         <v>111</v>
       </c>
       <c r="B88" s="61" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C88" s="61">
         <v>85.0</v>
@@ -60461,7 +60585,7 @@
         <v>126</v>
       </c>
       <c r="F88" s="69" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G88" s="8" t="s">
         <v>24</v>
@@ -60473,13 +60597,14 @@
         <v>var85</v>
       </c>
       <c r="K88" s="35"/>
+      <c r="L88" s="35"/>
     </row>
     <row r="89" ht="22.5" customHeight="1">
       <c r="A89" s="30" t="s">
         <v>111</v>
       </c>
       <c r="B89" s="61" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C89" s="61">
         <v>86.0</v>
@@ -60489,7 +60614,7 @@
         <v>127</v>
       </c>
       <c r="F89" s="69" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G89" s="8" t="s">
         <v>24</v>
@@ -60501,13 +60626,14 @@
         <v>var86</v>
       </c>
       <c r="K89" s="35"/>
+      <c r="L89" s="35"/>
     </row>
     <row r="90" ht="22.5" customHeight="1">
       <c r="A90" s="30" t="s">
         <v>111</v>
       </c>
       <c r="B90" s="61" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C90" s="61">
         <v>87.0</v>
@@ -60517,7 +60643,7 @@
         <v>128</v>
       </c>
       <c r="F90" s="69" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G90" s="8" t="s">
         <v>24</v>
@@ -60529,13 +60655,14 @@
         <v>var87</v>
       </c>
       <c r="K90" s="35"/>
+      <c r="L90" s="35"/>
     </row>
     <row r="91" ht="22.5" customHeight="1">
       <c r="A91" s="30" t="s">
         <v>111</v>
       </c>
       <c r="B91" s="61" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C91" s="61">
         <v>88.0</v>
@@ -60545,7 +60672,7 @@
         <v>129</v>
       </c>
       <c r="F91" s="69" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G91" s="8" t="s">
         <v>24</v>
@@ -60557,13 +60684,14 @@
         <v>var88</v>
       </c>
       <c r="K91" s="35"/>
+      <c r="L91" s="35"/>
     </row>
     <row r="92" ht="22.5" customHeight="1">
       <c r="A92" s="30" t="s">
         <v>111</v>
       </c>
       <c r="B92" s="61" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C92" s="61">
         <v>89.0</v>
@@ -60573,7 +60701,7 @@
         <v>130</v>
       </c>
       <c r="F92" s="69" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G92" s="8" t="s">
         <v>24</v>
@@ -60585,13 +60713,14 @@
         <v>var89</v>
       </c>
       <c r="K92" s="35"/>
+      <c r="L92" s="35"/>
     </row>
     <row r="93" ht="22.5" customHeight="1">
       <c r="A93" s="30" t="s">
         <v>111</v>
       </c>
       <c r="B93" s="61" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C93" s="61">
         <v>90.0</v>
@@ -60601,7 +60730,7 @@
         <v>131</v>
       </c>
       <c r="F93" s="69" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G93" s="8" t="s">
         <v>24</v>
@@ -60613,13 +60742,14 @@
         <v>var90</v>
       </c>
       <c r="K93" s="35"/>
+      <c r="L93" s="35"/>
     </row>
     <row r="94" ht="22.5" customHeight="1">
       <c r="A94" s="30" t="s">
         <v>111</v>
       </c>
       <c r="B94" s="61" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C94" s="61">
         <v>91.0</v>
@@ -60629,7 +60759,7 @@
         <v>132</v>
       </c>
       <c r="F94" s="69" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G94" s="8" t="s">
         <v>24</v>
@@ -60641,13 +60771,14 @@
         <v>var91</v>
       </c>
       <c r="K94" s="35"/>
+      <c r="L94" s="35"/>
     </row>
     <row r="95" ht="22.5" customHeight="1">
       <c r="A95" s="30" t="s">
         <v>111</v>
       </c>
       <c r="B95" s="61" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C95" s="61">
         <v>92.0</v>
@@ -60657,7 +60788,7 @@
         <v>133</v>
       </c>
       <c r="F95" s="69" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G95" s="8" t="s">
         <v>24</v>
@@ -60669,13 +60800,14 @@
         <v>var92</v>
       </c>
       <c r="K95" s="35"/>
+      <c r="L95" s="35"/>
     </row>
     <row r="96" ht="22.5" customHeight="1">
       <c r="A96" s="30" t="s">
         <v>111</v>
       </c>
       <c r="B96" s="61" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C96" s="61">
         <v>93.0</v>
@@ -60685,7 +60817,7 @@
         <v>134</v>
       </c>
       <c r="F96" s="69" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G96" s="8" t="s">
         <v>24</v>
@@ -60697,13 +60829,14 @@
         <v>var93</v>
       </c>
       <c r="K96" s="35"/>
+      <c r="L96" s="35"/>
     </row>
     <row r="97" ht="22.5" customHeight="1">
       <c r="A97" s="30" t="s">
         <v>111</v>
       </c>
       <c r="B97" s="61" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C97" s="61">
         <v>94.0</v>
@@ -60713,7 +60846,7 @@
         <v>135</v>
       </c>
       <c r="F97" s="69" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G97" s="8" t="s">
         <v>24</v>
@@ -60725,13 +60858,14 @@
         <v>var94</v>
       </c>
       <c r="K97" s="35"/>
+      <c r="L97" s="35"/>
     </row>
     <row r="98" ht="22.5" customHeight="1">
       <c r="A98" s="30" t="s">
         <v>111</v>
       </c>
       <c r="B98" s="61" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C98" s="61">
         <v>95.0</v>
@@ -60741,7 +60875,7 @@
         <v>136</v>
       </c>
       <c r="F98" s="69" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G98" s="8" t="s">
         <v>24</v>
@@ -60753,11 +60887,12 @@
         <v>var95</v>
       </c>
       <c r="K98" s="35"/>
+      <c r="L98" s="35"/>
     </row>
     <row r="99" ht="22.5" customHeight="1">
       <c r="A99" s="35"/>
       <c r="B99" s="26" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C99" s="61">
         <v>96.0</v>
@@ -60767,10 +60902,10 @@
         <v>138</v>
       </c>
       <c r="F99" s="69" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G99" s="36" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H99" s="35"/>
       <c r="I99" s="35"/>
@@ -60779,11 +60914,12 @@
         <v>var96</v>
       </c>
       <c r="K99" s="35"/>
+      <c r="L99" s="35"/>
     </row>
     <row r="100" ht="22.5" customHeight="1">
       <c r="A100" s="35"/>
       <c r="B100" s="26" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C100" s="61">
         <v>97.0</v>
@@ -60793,10 +60929,10 @@
         <v>140</v>
       </c>
       <c r="F100" s="69" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G100" s="36" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H100" s="35"/>
       <c r="I100" s="35"/>
@@ -60805,6 +60941,7 @@
         <v>var97</v>
       </c>
       <c r="K100" s="35"/>
+      <c r="L100" s="35"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$1:$G$100"/>
@@ -60833,7 +60970,9 @@
     <col customWidth="1" min="6" max="6" width="14.75"/>
     <col customWidth="1" min="7" max="7" width="25.88"/>
     <col customWidth="1" min="8" max="9" width="9.38"/>
-    <col customWidth="1" min="10" max="11" width="21.13"/>
+    <col customWidth="1" min="10" max="10" width="7.5"/>
+    <col customWidth="1" min="11" max="11" width="6.88"/>
+    <col customWidth="1" min="12" max="12" width="6.38"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -60870,21 +61009,24 @@
       <c r="K1" s="60" t="s">
         <v>225</v>
       </c>
+      <c r="L1" s="60" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="2" ht="22.5" customHeight="1">
       <c r="A2" s="19"/>
       <c r="B2" s="61" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C2" s="61">
         <v>0.0</v>
       </c>
       <c r="D2" s="62"/>
       <c r="E2" s="63" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G2" s="29"/>
       <c r="H2" s="35"/>
@@ -60894,24 +61036,25 @@
         <v>var0</v>
       </c>
       <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
     </row>
     <row r="3" ht="22.5" customHeight="1">
       <c r="A3" s="19"/>
       <c r="B3" s="61" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C3" s="61">
         <v>1.0</v>
       </c>
       <c r="D3" s="62"/>
       <c r="E3" s="26" t="s">
-        <v>229</v>
+        <v>294</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>230</v>
+        <v>295</v>
       </c>
       <c r="G3" s="64" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H3" s="26">
         <v>1.0</v>
@@ -60922,24 +61065,25 @@
         <v>var1</v>
       </c>
       <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
     </row>
     <row r="4" ht="22.5" customHeight="1">
       <c r="A4" s="19"/>
       <c r="B4" s="61" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C4" s="61">
         <v>2.0</v>
       </c>
       <c r="D4" s="62"/>
       <c r="E4" s="26" t="s">
-        <v>232</v>
+        <v>296</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>230</v>
+        <v>295</v>
       </c>
       <c r="G4" s="64" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H4" s="26">
         <v>2.0</v>
@@ -60950,24 +61094,25 @@
         <v>var2</v>
       </c>
       <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
     </row>
     <row r="5" ht="22.5" customHeight="1">
       <c r="A5" s="19"/>
       <c r="B5" s="61" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C5" s="61">
         <v>3.0</v>
       </c>
       <c r="D5" s="62"/>
       <c r="E5" s="26" t="s">
-        <v>234</v>
+        <v>297</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>230</v>
+        <v>295</v>
       </c>
       <c r="G5" s="65" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H5" s="26">
         <v>3.0</v>
@@ -60978,24 +61123,25 @@
         <v>var3</v>
       </c>
       <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
     </row>
     <row r="6" ht="22.5" customHeight="1">
       <c r="A6" s="19"/>
       <c r="B6" s="61" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C6" s="61">
         <v>4.0</v>
       </c>
       <c r="D6" s="62"/>
       <c r="E6" s="26" t="s">
-        <v>236</v>
+        <v>298</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>230</v>
+        <v>295</v>
       </c>
       <c r="G6" s="64" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H6" s="26">
         <v>4.0</v>
@@ -61006,25 +61152,24 @@
         <v>var4</v>
       </c>
       <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
     </row>
     <row r="7" ht="22.5" customHeight="1">
       <c r="A7" s="35"/>
       <c r="B7" s="26" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C7" s="26">
         <v>5.0</v>
       </c>
       <c r="D7" s="35"/>
-      <c r="E7" s="66" t="s">
-        <v>293</v>
+      <c r="E7" s="76" t="s">
+        <v>299</v>
       </c>
       <c r="F7" s="69" t="s">
-        <v>254</v>
-      </c>
-      <c r="G7" s="67" t="s">
-        <v>247</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="G7" s="67"/>
       <c r="H7" s="66"/>
       <c r="I7" s="66"/>
       <c r="J7" s="35" t="str">
@@ -61032,9 +61177,36 @@
         <v>var5</v>
       </c>
       <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+    </row>
+    <row r="8" ht="22.5" customHeight="1">
+      <c r="A8" s="35"/>
+      <c r="B8" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="C8" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="D8" s="35"/>
+      <c r="E8" s="76" t="s">
+        <v>300</v>
+      </c>
+      <c r="F8" s="69" t="s">
+        <v>253</v>
+      </c>
+      <c r="G8" s="67"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="K8" s="35"/>
+      <c r="L8" s="26" t="s">
+        <v>302</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$G$7"/>
+  <autoFilter ref="$A$1:$G$8"/>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>

--- a/temp_Matriz2.xlsx
+++ b/temp_Matriz2.xlsx
@@ -2187,13 +2187,13 @@
     <t>Pregunta 6</t>
   </si>
   <si>
-    <t>var 6</t>
+    <t>var6</t>
   </si>
   <si>
     <t>pregunta 7</t>
   </si>
   <si>
-    <t>var 7</t>
+    <t>var7</t>
   </si>
   <si>
     <t>&gt;2</t>
@@ -72724,6 +72724,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="27.75"/>
     <col customWidth="1" min="2" max="2" width="66.38"/>
+    <col customWidth="1" min="3" max="3" width="16.63"/>
   </cols>
   <sheetData>
     <row r="1">
